--- a/07. JULI/hasil/IDLAGU_ALL.xlsx
+++ b/07. JULI/hasil/IDLAGU_ALL.xlsx
@@ -1,18 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Total" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -46,11 +31,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -408,181 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indonesia Pop</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Indonesia Daerah</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mandarin</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jepang</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Lain-Lain</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="B2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="C2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="D2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="E2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="F2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="G2" s="1">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="H2" s="1">
-        <f>SUM(A2:G2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Indonesia Pop</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Indonesia Daerah</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Mandarin</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Jepang</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Lain-Lain</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <f>A2/H2</f>
-        <v/>
-      </c>
-      <c r="B4" s="1">
-        <f>B2/H2</f>
-        <v/>
-      </c>
-      <c r="C4" s="1">
-        <f>C2/H2</f>
-        <v/>
-      </c>
-      <c r="D4" s="1">
-        <f>D2/H2</f>
-        <v/>
-      </c>
-      <c r="E4" s="1">
-        <f>E2/H2</f>
-        <v/>
-      </c>
-      <c r="F4" s="1">
-        <f>F2/H2</f>
-        <v/>
-      </c>
-      <c r="G4" s="1">
-        <f>G2/H2</f>
-        <v/>
-      </c>
-      <c r="H4" s="1">
-        <f>H2/H2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_ALL.xlsx
+++ b/07. JULI/hasil/IDLAGU_ALL.xlsx
@@ -36,12 +36,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccccff"/>
+        <bgColor rgb="00ccccff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -62,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -68503,7 +68512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68514,162 +68523,198 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Kategori Bahasa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="3">
         <f>='Indonesia Pop'!C2432</f>
         <v/>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <f>='Indonesia Daerah'!C76</f>
         <v/>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <f>='English'!C601</f>
         <v/>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <f>='Mandarin'!C12</f>
         <v/>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <f>='Jepang'!C16</f>
         <v/>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <f>='Korea'!C209</f>
         <v/>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="3">
         <f>='Lain-Lain'!C54</f>
         <v/>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(A2:G2)</f>
+      <c r="H3" s="3">
+        <f>SUM(A3:G3)</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Prosentase</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <f>A2/H2</f>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>A3/H3</f>
         <v/>
       </c>
-      <c r="B4" s="2">
-        <f>B2/H2</f>
+      <c r="B7">
+        <f>B3/H3</f>
         <v/>
       </c>
-      <c r="C4" s="2">
-        <f>C2/H2</f>
+      <c r="C7">
+        <f>C3/H3</f>
         <v/>
       </c>
-      <c r="D4" s="2">
-        <f>D2/H2</f>
+      <c r="D7">
+        <f>D3/H3</f>
         <v/>
       </c>
-      <c r="E4" s="2">
-        <f>E2/H2</f>
+      <c r="E7">
+        <f>E3/H3</f>
         <v/>
       </c>
-      <c r="F4" s="2">
-        <f>F2/H2</f>
+      <c r="F7">
+        <f>F3/H3</f>
         <v/>
       </c>
-      <c r="G4" s="2">
-        <f>G2/H2</f>
+      <c r="G7">
+        <f>G3/H3</f>
         <v/>
       </c>
-      <c r="H4" s="2">
-        <f>H2/H2</f>
+      <c r="H7">
+        <f>H3/H3</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_ALL.xlsx
+++ b/07. JULI/hasil/IDLAGU_ALL.xlsx
@@ -68623,7 +68623,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Prosentase</t>
+          <t>Persentase</t>
         </is>
       </c>
       <c r="B5" s="3" t="n"/>
